--- a/data/trans_camb/P16B02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,81</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; 7,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,73; 2,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 4,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,7; 3,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,36; 3,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,1; 1,89</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,04%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,57; 9,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,35; 2,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,43; 4,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; 4,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,7; 4,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,71; 2,17</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,48</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,97; 5,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,79; -1,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,34; 1,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,24; -2,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,68; 0,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,68; -3,4</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,15%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,91; 7,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,01; -2,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,14; 1,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,58; -2,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,19; 1,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,3; -4,72</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,42; 14,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,02; 1,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,28; -2,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,87; -7,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,55; 0,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,65; -6,56</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,82%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,52; 24,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,74; 3,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,9; -3,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,57; -11,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,51; 0,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,98; -10,58</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,23</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 3,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,06; -4,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,37; -1,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,4; -4,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,9; -0,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,55; -5,82</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,75%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,03%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,32%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,97; 5,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,15; -6,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,7; -1,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,38; -5,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,12; -0,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,05; -7,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 7,64</t>
+          <t>-6,33; 6,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 2,48</t>
+          <t>-13,28; 2,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 4,0</t>
+          <t>-4,24; 3,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 3,74</t>
+          <t>-5,4; 3,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,72</t>
+          <t>-3,23; 3,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 1,89</t>
+          <t>-5,92; 2,07</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 9,18</t>
+          <t>-7,21; 7,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 2,98</t>
+          <t>-14,95; 3,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 4,62</t>
+          <t>-4,6; 4,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 4,26</t>
+          <t>-5,93; 4,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 4,3</t>
+          <t>-3,56; 4,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 2,17</t>
+          <t>-6,59; 2,39</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 5,28</t>
+          <t>-11,1; 5,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,79; -1,82</t>
+          <t>-16,41; -0,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 1,21</t>
+          <t>-10,94; 1,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,24; -2,09</t>
+          <t>-14,26; -1,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 0,96</t>
+          <t>-8,51; 1,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,68; -3,4</t>
+          <t>-13,77; -3,33</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 7,81</t>
+          <t>-14,43; 7,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,01; -2,63</t>
+          <t>-21,55; -1,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 1,45</t>
+          <t>-13,38; 2,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,58; -2,79</t>
+          <t>-17,48; -1,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 1,34</t>
+          <t>-10,8; 1,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -4,72</t>
+          <t>-17,35; -4,52</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 14,61</t>
+          <t>-21,87; 13,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 1,97</t>
+          <t>-29,04; 3,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,28; -2,01</t>
+          <t>-27,54; -1,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-32,87; -7,21</t>
+          <t>-31,2; -7,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 0,53</t>
+          <t>-21,7; 0,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,65; -6,56</t>
+          <t>-27,3; -7,25</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 24,7</t>
+          <t>-30,2; 24,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,74; 3,22</t>
+          <t>-39,23; 4,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,9; -3,0</t>
+          <t>-34,54; -2,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,57; -11,33</t>
+          <t>-38,69; -11,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 0,16</t>
+          <t>-28,84; 1,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,98; -10,58</t>
+          <t>-35,43; -10,99</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 3,85</t>
+          <t>-6,66; 4,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,06; -4,82</t>
+          <t>-16,2; -5,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,37; -1,15</t>
+          <t>-7,97; -0,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,4; -4,45</t>
+          <t>-12,25; -4,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,9; -0,31</t>
+          <t>-6,2; -0,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,55; -5,82</t>
+          <t>-12,39; -6,26</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 5,22</t>
+          <t>-8,35; 6,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,15; -6,53</t>
+          <t>-20,42; -7,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -1,43</t>
+          <t>-9,29; -1,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,38; -5,41</t>
+          <t>-14,24; -5,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -0,4</t>
+          <t>-7,44; -0,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,05; -7,22</t>
+          <t>-14,84; -7,8</t>
         </is>
       </c>
     </row>
